--- a/Tests/1/Test_SingleRun11.xlsx
+++ b/Tests/1/Test_SingleRun11.xlsx
@@ -152,7 +152,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -329,6 +329,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -344,23 +361,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,55 +685,55 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="39">
+      <c r="B2" s="42"/>
+      <c r="C2" s="34">
         <v>1799.5695000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="41">
+      <c r="B3" s="42"/>
+      <c r="C3" s="36">
         <v>3463.9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="42">
+      <c r="B4" s="42"/>
+      <c r="C4" s="37">
         <v>3590.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="40">
+      <c r="B5" s="42"/>
+      <c r="C5" s="35">
         <v>0.64009999999999945</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="38">
+      <c r="B6" s="42"/>
+      <c r="C6" s="33">
         <v>1.0478538313460108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="23">
         <v>60</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="32">
         <v>43825.5</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="32">
         <v>11951</v>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="32">
         <v>4321.3</v>
       </c>
     </row>
@@ -777,7 +777,7 @@
       <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="32">
         <v>2338</v>
       </c>
     </row>
@@ -785,7 +785,7 @@
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="32">
         <v>1589.5</v>
       </c>
     </row>
@@ -793,7 +793,7 @@
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="32">
         <v>1226.5</v>
       </c>
     </row>
@@ -801,7 +801,7 @@
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="32">
         <v>876.5</v>
       </c>
     </row>
@@ -809,7 +809,7 @@
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="32">
         <v>674.2</v>
       </c>
     </row>
@@ -817,7 +817,7 @@
       <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="32">
         <v>605.1</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
       <c r="B18" s="4">
         <v>10</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="32">
         <v>505.5</v>
       </c>
     </row>
@@ -833,7 +833,7 @@
       <c r="B19" s="4">
         <v>11.5</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="32">
         <v>460.1</v>
       </c>
     </row>
@@ -841,7 +841,7 @@
       <c r="B20" s="3">
         <v>13</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="32">
         <v>410.1</v>
       </c>
     </row>
@@ -849,7 +849,7 @@
       <c r="B21" s="3">
         <v>14.5</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="32">
         <v>369.2</v>
       </c>
     </row>
@@ -857,7 +857,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="32">
         <v>356</v>
       </c>
     </row>
@@ -865,7 +865,7 @@
       <c r="B23" s="3">
         <v>17.5</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="32">
         <v>281.7</v>
       </c>
     </row>
@@ -873,7 +873,7 @@
       <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="32">
         <v>300.3</v>
       </c>
     </row>
@@ -881,7 +881,7 @@
       <c r="B25" s="3">
         <v>20.5</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="32">
         <v>288.10000000000002</v>
       </c>
     </row>
@@ -889,7 +889,7 @@
       <c r="B26" s="3">
         <v>22</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="32">
         <v>213.4</v>
       </c>
     </row>
@@ -897,7 +897,7 @@
       <c r="B27" s="3">
         <v>23.5</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="32">
         <v>170.9</v>
       </c>
     </row>
@@ -905,7 +905,7 @@
       <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="32">
         <v>150.30000000000001</v>
       </c>
     </row>
@@ -913,7 +913,7 @@
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="32">
         <v>238.3</v>
       </c>
     </row>
@@ -921,7 +921,7 @@
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="32">
         <v>242</v>
       </c>
     </row>
@@ -929,7 +929,7 @@
       <c r="B31" s="3">
         <v>31</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="32">
         <v>170.4</v>
       </c>
     </row>
@@ -937,7 +937,7 @@
       <c r="B32" s="3">
         <v>33</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="32">
         <v>154.4</v>
       </c>
     </row>
@@ -945,7 +945,7 @@
       <c r="B33" s="3">
         <v>35</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="32">
         <v>185.9</v>
       </c>
     </row>
@@ -953,7 +953,7 @@
       <c r="B34" s="3">
         <v>37</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="32">
         <v>173.3</v>
       </c>
     </row>
@@ -961,7 +961,7 @@
       <c r="B35" s="3">
         <v>39</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="32">
         <v>174.6</v>
       </c>
     </row>
@@ -969,7 +969,7 @@
       <c r="B36" s="3">
         <v>41</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="32">
         <v>159.6</v>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="B37" s="3">
         <v>43</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="32">
         <v>121.4</v>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="B38" s="3">
         <v>45</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="32">
         <v>137.80000000000001</v>
       </c>
     </row>
@@ -1007,8 +1007,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,11 +1024,11 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="44">
+      <c r="B2" s="42"/>
+      <c r="C2" s="39">
         <v>1799.5695000000001</v>
       </c>
       <c r="D2" s="8"/>
@@ -1044,11 +1044,11 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="43">
+      <c r="B3" s="42"/>
+      <c r="C3" s="38">
         <v>3463.9</v>
       </c>
       <c r="D3" s="7"/>
@@ -1064,11 +1064,11 @@
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="42">
+      <c r="B4" s="42"/>
+      <c r="C4" s="37">
         <v>3590.8999999999996</v>
       </c>
       <c r="D4" s="7"/>
@@ -1084,11 +1084,11 @@
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="45">
+      <c r="B5" s="42"/>
+      <c r="C5" s="40">
         <v>0.64009999999999945</v>
       </c>
       <c r="D5" s="9"/>
@@ -1104,19 +1104,19 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="46">
+      <c r="B6" s="42"/>
+      <c r="C6" s="41">
         <v>1.0478538313460108</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="23">
         <v>60</v>
       </c>
@@ -1133,10 +1133,10 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="21">
         <v>45</v>
       </c>
@@ -1153,10 +1153,10 @@
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="46"/>
       <c r="C9">
         <f>C16+C10</f>
         <v>30.262003571134386</v>
@@ -1174,10 +1174,10 @@
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="44"/>
       <c r="C10">
         <f>60*(C13-(C22/C21)*EXP(-1*C21*C8))/C2/C7</f>
         <v>4.9736361855219284</v>
@@ -1195,10 +1195,10 @@
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="44"/>
       <c r="C11">
         <f>C16/C9</f>
         <v>0.83564749195039867</v>
@@ -1213,10 +1213,10 @@
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="44"/>
       <c r="C12">
         <f>C9*C17/(3*0.693)</f>
         <v>224.00163401597598</v>
@@ -1234,10 +1234,10 @@
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="16">
         <f>(C3+C4)/C5</f>
         <v>11021.402905795978</v>
@@ -1255,15 +1255,14 @@
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="16">
-        <f>C196</f>
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="15"/>
@@ -1278,12 +1277,12 @@
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="16">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="15"/>
@@ -1298,7 +1297,7 @@
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="19" t="s">
         <v>20</v>
       </c>
@@ -1319,7 +1318,7 @@
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="20" t="s">
         <v>24</v>
       </c>
@@ -1340,7 +1339,7 @@
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
       </c>
@@ -1361,7 +1360,7 @@
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="20" t="s">
         <v>26</v>
       </c>
@@ -1382,7 +1381,7 @@
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="20" t="s">
         <v>27</v>
       </c>
@@ -1403,7 +1402,7 @@
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="20" t="s">
         <v>28</v>
       </c>
@@ -1424,7 +1423,7 @@
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="20" t="s">
         <v>29</v>
       </c>
@@ -1445,15 +1444,14 @@
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="43" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="16">
-        <f>C291</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -1468,7 +1466,7 @@
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="19" t="s">
         <v>37</v>
       </c>
@@ -1489,7 +1487,7 @@
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="19" t="s">
         <v>20</v>
       </c>
@@ -1510,7 +1508,7 @@
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
       </c>
@@ -1531,7 +1529,7 @@
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
       </c>
@@ -1552,7 +1550,7 @@
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="20" t="s">
         <v>26</v>
       </c>
@@ -1573,7 +1571,7 @@
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="20" t="s">
         <v>27</v>
       </c>
@@ -1594,7 +1592,7 @@
       <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="20" t="s">
         <v>28</v>
       </c>
@@ -1615,7 +1613,7 @@
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="20" t="s">
         <v>29</v>
       </c>
@@ -1636,18 +1634,18 @@
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="43" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="19" t="s">
         <v>37</v>
       </c>
@@ -1668,7 +1666,7 @@
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="19" t="s">
         <v>20</v>
       </c>
@@ -1689,7 +1687,7 @@
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
       </c>
@@ -1710,7 +1708,7 @@
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
       </c>
@@ -1731,7 +1729,7 @@
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="20" t="s">
         <v>26</v>
       </c>
@@ -1752,7 +1750,7 @@
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="20" t="s">
         <v>27</v>
       </c>
@@ -1773,7 +1771,7 @@
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="20" t="s">
         <v>28</v>
       </c>
@@ -1794,7 +1792,7 @@
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="20" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +1838,7 @@
       <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="31">
         <v>43825.5</v>
       </c>
       <c r="D42" s="7"/>
@@ -1859,7 +1857,7 @@
       <c r="B43" s="3">
         <v>2</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="31">
         <v>11951</v>
       </c>
       <c r="D43" s="7"/>
@@ -1878,7 +1876,7 @@
       <c r="B44" s="3">
         <v>3</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="31">
         <v>4321.3</v>
       </c>
       <c r="D44" s="7"/>
@@ -1897,7 +1895,7 @@
       <c r="B45" s="4">
         <v>4</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="31">
         <v>2338</v>
       </c>
       <c r="D45" s="7"/>
@@ -1916,7 +1914,7 @@
       <c r="B46" s="3">
         <v>5</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="31">
         <v>1589.5</v>
       </c>
       <c r="D46" s="7"/>
@@ -1935,7 +1933,7 @@
       <c r="B47" s="3">
         <v>6</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="31">
         <v>1226.5</v>
       </c>
       <c r="D47" s="7"/>
@@ -1954,7 +1952,7 @@
       <c r="B48" s="3">
         <v>7</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="31">
         <v>876.5</v>
       </c>
       <c r="D48" s="7"/>
@@ -1973,7 +1971,7 @@
       <c r="B49" s="3">
         <v>8</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="31">
         <v>674.2</v>
       </c>
       <c r="D49" s="7"/>
@@ -1992,7 +1990,7 @@
       <c r="B50" s="3">
         <v>9</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="31">
         <v>605.1</v>
       </c>
       <c r="D50" s="7"/>
@@ -2011,7 +2009,7 @@
       <c r="B51" s="4">
         <v>10</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="31">
         <v>505.5</v>
       </c>
       <c r="D51" s="7"/>
@@ -2030,7 +2028,7 @@
       <c r="B52" s="4">
         <v>11.5</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="31">
         <v>460.1</v>
       </c>
       <c r="D52" s="7"/>
@@ -2049,7 +2047,7 @@
       <c r="B53" s="3">
         <v>13</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="31">
         <v>410.1</v>
       </c>
       <c r="D53" s="7"/>
@@ -2067,7 +2065,7 @@
       <c r="B54" s="3">
         <v>14.5</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="31">
         <v>369.2</v>
       </c>
       <c r="D54" s="7"/>
@@ -2086,7 +2084,7 @@
       <c r="B55" s="3">
         <v>16</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="31">
         <v>356</v>
       </c>
       <c r="D55" s="7"/>
@@ -2105,7 +2103,7 @@
       <c r="B56" s="3">
         <v>17.5</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C56" s="31">
         <v>281.7</v>
       </c>
       <c r="D56" s="7"/>
@@ -2124,7 +2122,7 @@
       <c r="B57" s="3">
         <v>19</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="31">
         <v>300.3</v>
       </c>
       <c r="D57" s="7"/>
@@ -2143,7 +2141,7 @@
       <c r="B58" s="3">
         <v>20.5</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C58" s="31">
         <v>288.10000000000002</v>
       </c>
       <c r="D58" s="7"/>
@@ -2162,7 +2160,7 @@
       <c r="B59" s="3">
         <v>22</v>
       </c>
-      <c r="C59" s="36">
+      <c r="C59" s="31">
         <v>213.4</v>
       </c>
       <c r="D59" s="7"/>
@@ -2181,7 +2179,7 @@
       <c r="B60" s="3">
         <v>23.5</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="31">
         <v>170.9</v>
       </c>
       <c r="D60" s="7"/>
@@ -2200,7 +2198,7 @@
       <c r="B61" s="3">
         <v>25</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="31">
         <v>150.30000000000001</v>
       </c>
       <c r="D61" s="7"/>
@@ -2219,7 +2217,7 @@
       <c r="B62" s="3">
         <v>27</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C62" s="31">
         <v>238.3</v>
       </c>
       <c r="D62" s="7"/>
@@ -2238,7 +2236,7 @@
       <c r="B63" s="3">
         <v>29</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="31">
         <v>242</v>
       </c>
       <c r="D63" s="7"/>
@@ -2257,7 +2255,7 @@
       <c r="B64" s="3">
         <v>31</v>
       </c>
-      <c r="C64" s="36">
+      <c r="C64" s="31">
         <v>170.4</v>
       </c>
     </row>
@@ -2265,7 +2263,7 @@
       <c r="B65" s="3">
         <v>33</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C65" s="31">
         <v>154.4</v>
       </c>
     </row>
@@ -2273,7 +2271,7 @@
       <c r="B66" s="3">
         <v>35</v>
       </c>
-      <c r="C66" s="36">
+      <c r="C66" s="31">
         <v>185.9</v>
       </c>
     </row>
@@ -2281,7 +2279,7 @@
       <c r="B67" s="3">
         <v>37</v>
       </c>
-      <c r="C67" s="36">
+      <c r="C67" s="31">
         <v>173.3</v>
       </c>
     </row>
@@ -2289,7 +2287,7 @@
       <c r="B68" s="3">
         <v>39</v>
       </c>
-      <c r="C68" s="36">
+      <c r="C68" s="31">
         <v>174.6</v>
       </c>
     </row>
@@ -2297,7 +2295,7 @@
       <c r="B69" s="3">
         <v>41</v>
       </c>
-      <c r="C69" s="36">
+      <c r="C69" s="31">
         <v>159.6</v>
       </c>
     </row>
@@ -2305,7 +2303,7 @@
       <c r="B70" s="3">
         <v>43</v>
       </c>
-      <c r="C70" s="36">
+      <c r="C70" s="31">
         <v>121.4</v>
       </c>
     </row>
@@ -2313,7 +2311,7 @@
       <c r="B71" s="3">
         <v>45</v>
       </c>
-      <c r="C71" s="36">
+      <c r="C71" s="31">
         <v>137.80000000000001</v>
       </c>
     </row>
@@ -3311,7 +3309,7 @@
       <c r="B169" s="4">
         <v>4</v>
       </c>
-      <c r="C169" s="31">
+      <c r="C169" s="26">
         <f>RSQ($B138:$B$164, $C138:$C$164)</f>
         <v>0.83059652327998512</v>
       </c>
@@ -3331,7 +3329,7 @@
       <c r="B170" s="3">
         <v>5</v>
       </c>
-      <c r="C170" s="32">
+      <c r="C170" s="27">
         <f>RSQ($B139:$B$164, $C139:$C$164)</f>
         <v>0.84190875016849975</v>
       </c>
@@ -3351,7 +3349,7 @@
       <c r="B171" s="3">
         <v>6</v>
       </c>
-      <c r="C171" s="32">
+      <c r="C171" s="27">
         <f>RSQ($B140:$B$164, $C140:$C$164)</f>
         <v>0.8499375095714502</v>
       </c>
@@ -3371,7 +3369,7 @@
       <c r="B172" s="3">
         <v>7</v>
       </c>
-      <c r="C172" s="33">
+      <c r="C172" s="28">
         <f>RSQ($B141:$B$164, $C141:$C$164)</f>
         <v>0.86040779892602504</v>
       </c>
@@ -3391,7 +3389,7 @@
       <c r="B173" s="3">
         <v>8</v>
       </c>
-      <c r="C173" s="34">
+      <c r="C173" s="29">
         <f>RSQ($B142:$B$164, $C142:$C$164)</f>
         <v>0.86543063008726562</v>
       </c>
@@ -3411,7 +3409,7 @@
       <c r="B174" s="3">
         <v>9</v>
       </c>
-      <c r="C174" s="31">
+      <c r="C174" s="26">
         <f>RSQ($B143:$B$164, $C143:$C$164)</f>
         <v>0.8663862265862764</v>
       </c>
@@ -3431,7 +3429,7 @@
       <c r="B175" s="4">
         <v>10</v>
       </c>
-      <c r="C175" s="32">
+      <c r="C175" s="27">
         <f>RSQ($B144:$B$164, $C144:$C$164)</f>
         <v>0.87638096413673927</v>
       </c>
@@ -3451,7 +3449,7 @@
       <c r="B176" s="4">
         <v>11.5</v>
       </c>
-      <c r="C176" s="30">
+      <c r="C176" s="25">
         <f>RSQ($B145:$B$164, $C145:$C$164)</f>
         <v>0.89449521114970076</v>
       </c>
@@ -3471,7 +3469,7 @@
       <c r="B177" s="3">
         <v>13</v>
       </c>
-      <c r="C177" s="31">
+      <c r="C177" s="26">
         <f>RSQ($B146:$B$164, $C146:$C$164)</f>
         <v>0.8820139336830678</v>
       </c>
@@ -3491,7 +3489,7 @@
       <c r="B178" s="3">
         <v>14.5</v>
       </c>
-      <c r="C178" s="31">
+      <c r="C178" s="26">
         <f>RSQ($B147:$B$164, $C147:$C$164)</f>
         <v>0.86636182326025923</v>
       </c>
@@ -4104,7 +4102,7 @@
       <c r="B238" s="4">
         <v>10</v>
       </c>
-      <c r="C238" s="35"/>
+      <c r="C238" s="30"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B239" s="13">
@@ -4316,7 +4314,7 @@
         <v>4</v>
       </c>
       <c r="C263" s="11">
-        <f t="shared" ref="C263:C269" si="3">SUM(C200,C232)</f>
+        <f t="shared" ref="C263:C266" si="3">SUM(C200,C232)</f>
         <v>1.968153567074058</v>
       </c>
     </row>
